--- a/BalanceSheet/J_bal.xlsx
+++ b/BalanceSheet/J_bal.xlsx
@@ -1948,19 +1948,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-63985000.0</v>
+        <v>999000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>22242000.0</v>
+        <v>1062000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>37585000.0</v>
+        <v>1049000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-117285000.0</v>
+        <v>1030000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-35380000.0</v>
+        <v>1033000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1072645000.0</v>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>53008000.0</v>
+        <v>-149000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>19802000.0</v>
+        <v>-208000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>-10967000.0</v>
